--- a/stock_historical_data/1mo/LEMONTREE.NS.xlsx
+++ b/stock_historical_data/1mo/LEMONTREE.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B2" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90.90000152587891</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>75.55000305175781</v>
       </c>
-      <c r="C2" t="n">
-        <v>80.80000305175781</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.79999923706055</v>
-      </c>
-      <c r="E2" t="n">
-        <v>72.59999847412109</v>
-      </c>
-      <c r="F2" t="n">
-        <v>72.59999847412109</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>46369731</v>
+        <v>168804618</v>
       </c>
       <c r="H2" t="n">
         <v>2018</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B3" t="n">
-        <v>72.5</v>
+        <v>75.55000305175781</v>
       </c>
       <c r="C3" t="n">
-        <v>78.25</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="D3" t="n">
-        <v>69.34999847412109</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="E3" t="n">
-        <v>76.84999847412109</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="F3" t="n">
-        <v>76.84999847412109</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="G3" t="n">
-        <v>29082138</v>
+        <v>46369731</v>
       </c>
       <c r="H3" t="n">
         <v>2018</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B4" t="n">
-        <v>76.90000152587891</v>
+        <v>72.5</v>
       </c>
       <c r="C4" t="n">
-        <v>84.59999847412109</v>
+        <v>78.25</v>
       </c>
       <c r="D4" t="n">
-        <v>71.30000305175781</v>
+        <v>69.34999847412109</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>76.84999847412109</v>
       </c>
       <c r="F4" t="n">
-        <v>78</v>
+        <v>76.84999847412109</v>
       </c>
       <c r="G4" t="n">
-        <v>17749836</v>
+        <v>29082138</v>
       </c>
       <c r="H4" t="n">
         <v>2018</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B5" t="n">
-        <v>77.80000305175781</v>
+        <v>76.90000152587891</v>
       </c>
       <c r="C5" t="n">
-        <v>86.25</v>
+        <v>84.59999847412109</v>
       </c>
       <c r="D5" t="n">
-        <v>75.44999694824219</v>
+        <v>71.30000305175781</v>
       </c>
       <c r="E5" t="n">
-        <v>78.55000305175781</v>
+        <v>78</v>
       </c>
       <c r="F5" t="n">
-        <v>78.55000305175781</v>
+        <v>78</v>
       </c>
       <c r="G5" t="n">
-        <v>15032193</v>
+        <v>17749836</v>
       </c>
       <c r="H5" t="n">
         <v>2018</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B6" t="n">
-        <v>78.75</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="C6" t="n">
-        <v>78.80000305175781</v>
+        <v>86.25</v>
       </c>
       <c r="D6" t="n">
-        <v>68.69999694824219</v>
+        <v>75.44999694824219</v>
       </c>
       <c r="E6" t="n">
-        <v>72.59999847412109</v>
+        <v>78.55000305175781</v>
       </c>
       <c r="F6" t="n">
-        <v>72.59999847412109</v>
+        <v>78.55000305175781</v>
       </c>
       <c r="G6" t="n">
-        <v>7547053</v>
+        <v>15032193</v>
       </c>
       <c r="H6" t="n">
         <v>2018</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B7" t="n">
-        <v>72.40000152587891</v>
+        <v>78.75</v>
       </c>
       <c r="C7" t="n">
-        <v>72.80000305175781</v>
+        <v>78.80000305175781</v>
       </c>
       <c r="D7" t="n">
-        <v>65.40000152587891</v>
+        <v>68.69999694824219</v>
       </c>
       <c r="E7" t="n">
-        <v>69.25</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="F7" t="n">
-        <v>69.25</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="G7" t="n">
-        <v>6072432</v>
+        <v>7547053</v>
       </c>
       <c r="H7" t="n">
         <v>2018</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B8" t="n">
-        <v>71.40000152587891</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="C8" t="n">
-        <v>77.5</v>
+        <v>72.80000305175781</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>65.40000152587891</v>
       </c>
       <c r="E8" t="n">
-        <v>68.05000305175781</v>
+        <v>69.25</v>
       </c>
       <c r="F8" t="n">
-        <v>68.05000305175781</v>
+        <v>69.25</v>
       </c>
       <c r="G8" t="n">
-        <v>9086549</v>
+        <v>6072432</v>
       </c>
       <c r="H8" t="n">
         <v>2018</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B9" t="n">
-        <v>68.44999694824219</v>
+        <v>71.40000152587891</v>
       </c>
       <c r="C9" t="n">
-        <v>77.80000305175781</v>
+        <v>77.5</v>
       </c>
       <c r="D9" t="n">
-        <v>63.70000076293945</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>73.59999847412109</v>
+        <v>68.05000305175781</v>
       </c>
       <c r="F9" t="n">
-        <v>73.59999847412109</v>
+        <v>68.05000305175781</v>
       </c>
       <c r="G9" t="n">
-        <v>11062237</v>
+        <v>9086549</v>
       </c>
       <c r="H9" t="n">
         <v>2018</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B10" t="n">
-        <v>73.44999694824219</v>
+        <v>68.44999694824219</v>
       </c>
       <c r="C10" t="n">
-        <v>78.90000152587891</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="D10" t="n">
-        <v>64.75</v>
+        <v>63.70000076293945</v>
       </c>
       <c r="E10" t="n">
-        <v>69.90000152587891</v>
+        <v>73.59999847412109</v>
       </c>
       <c r="F10" t="n">
-        <v>69.90000152587891</v>
+        <v>73.59999847412109</v>
       </c>
       <c r="G10" t="n">
-        <v>8297484</v>
+        <v>11062237</v>
       </c>
       <c r="H10" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B11" t="n">
-        <v>69.94999694824219</v>
+        <v>73.44999694824219</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>78.90000152587891</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>64.75</v>
       </c>
       <c r="E11" t="n">
-        <v>76.05000305175781</v>
+        <v>69.90000152587891</v>
       </c>
       <c r="F11" t="n">
-        <v>76.05000305175781</v>
+        <v>69.90000152587891</v>
       </c>
       <c r="G11" t="n">
-        <v>9061834</v>
+        <v>8297484</v>
       </c>
       <c r="H11" t="n">
         <v>2019</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B12" t="n">
-        <v>76.40000152587891</v>
+        <v>69.94999694824219</v>
       </c>
       <c r="C12" t="n">
-        <v>89.30000305175781</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>74.25</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>80.65000152587891</v>
+        <v>76.05000305175781</v>
       </c>
       <c r="F12" t="n">
-        <v>80.65000152587891</v>
+        <v>76.05000305175781</v>
       </c>
       <c r="G12" t="n">
-        <v>28318259</v>
+        <v>9061834</v>
       </c>
       <c r="H12" t="n">
         <v>2019</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B13" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="C13" t="n">
+        <v>89.30000305175781</v>
+      </c>
+      <c r="D13" t="n">
+        <v>74.25</v>
+      </c>
+      <c r="E13" t="n">
         <v>80.65000152587891</v>
       </c>
-      <c r="C13" t="n">
-        <v>86.40000152587891</v>
-      </c>
-      <c r="D13" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75</v>
-      </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>80.65000152587891</v>
       </c>
       <c r="G13" t="n">
-        <v>16934936</v>
+        <v>28318259</v>
       </c>
       <c r="H13" t="n">
         <v>2019</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B14" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="C14" t="n">
+        <v>86.40000152587891</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
-        <v>77.90000152587891</v>
-      </c>
-      <c r="D14" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75.15000152587891</v>
-      </c>
       <c r="F14" t="n">
-        <v>75.15000152587891</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
-        <v>12785315</v>
+        <v>16934936</v>
       </c>
       <c r="H14" t="n">
         <v>2019</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B15" t="n">
-        <v>75.55000305175781</v>
+        <v>75</v>
       </c>
       <c r="C15" t="n">
-        <v>75.75</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>68.5</v>
       </c>
       <c r="E15" t="n">
-        <v>66.84999847412109</v>
+        <v>75.15000152587891</v>
       </c>
       <c r="F15" t="n">
-        <v>66.84999847412109</v>
+        <v>75.15000152587891</v>
       </c>
       <c r="G15" t="n">
-        <v>9394850</v>
+        <v>12785315</v>
       </c>
       <c r="H15" t="n">
         <v>2019</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B16" t="n">
-        <v>67.80000305175781</v>
+        <v>75.55000305175781</v>
       </c>
       <c r="C16" t="n">
-        <v>71</v>
+        <v>75.75</v>
       </c>
       <c r="D16" t="n">
-        <v>56.09999847412109</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
-        <v>59.79999923706055</v>
+        <v>66.84999847412109</v>
       </c>
       <c r="F16" t="n">
-        <v>59.79999923706055</v>
+        <v>66.84999847412109</v>
       </c>
       <c r="G16" t="n">
-        <v>9239394</v>
+        <v>9394850</v>
       </c>
       <c r="H16" t="n">
         <v>2019</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1316,36 +1308,36 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B17" t="n">
-        <v>59.95000076293945</v>
+        <v>67.80000305175781</v>
       </c>
       <c r="C17" t="n">
-        <v>60.59999847412109</v>
+        <v>71</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="E17" t="n">
-        <v>54</v>
+        <v>59.79999923706055</v>
       </c>
       <c r="F17" t="n">
-        <v>54</v>
+        <v>59.79999923706055</v>
       </c>
       <c r="G17" t="n">
-        <v>72981858</v>
+        <v>9239394</v>
       </c>
       <c r="H17" t="n">
         <v>2019</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,45 +1352,45 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B18" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="C18" t="n">
+        <v>60.59999847412109</v>
+      </c>
+      <c r="D18" t="n">
+        <v>47</v>
+      </c>
+      <c r="E18" t="n">
         <v>54</v>
       </c>
-      <c r="C18" t="n">
-        <v>69.94999694824219</v>
-      </c>
-      <c r="D18" t="n">
-        <v>51</v>
-      </c>
-      <c r="E18" t="n">
-        <v>57.04999923706055</v>
-      </c>
       <c r="F18" t="n">
-        <v>57.04999923706055</v>
+        <v>54</v>
       </c>
       <c r="G18" t="n">
-        <v>77878659</v>
+        <v>72981858</v>
       </c>
       <c r="H18" t="n">
         <v>2019</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B19" t="n">
-        <v>56.29999923706055</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
-        <v>64</v>
+        <v>69.94999694824219</v>
       </c>
       <c r="D19" t="n">
-        <v>55.20000076293945</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>61.09999847412109</v>
+        <v>57.04999923706055</v>
       </c>
       <c r="F19" t="n">
-        <v>61.09999847412109</v>
+        <v>57.04999923706055</v>
       </c>
       <c r="G19" t="n">
-        <v>14466122</v>
+        <v>77878659</v>
       </c>
       <c r="H19" t="n">
         <v>2019</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B20" t="n">
-        <v>60.59999847412109</v>
+        <v>56.29999923706055</v>
       </c>
       <c r="C20" t="n">
-        <v>63.79999923706055</v>
+        <v>64</v>
       </c>
       <c r="D20" t="n">
-        <v>57.15000152587891</v>
+        <v>55.20000076293945</v>
       </c>
       <c r="E20" t="n">
-        <v>63.04999923706055</v>
+        <v>61.09999847412109</v>
       </c>
       <c r="F20" t="n">
-        <v>63.04999923706055</v>
+        <v>61.09999847412109</v>
       </c>
       <c r="G20" t="n">
-        <v>18948593</v>
+        <v>14466122</v>
       </c>
       <c r="H20" t="n">
         <v>2019</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B21" t="n">
-        <v>63.20000076293945</v>
+        <v>60.59999847412109</v>
       </c>
       <c r="C21" t="n">
-        <v>65.94999694824219</v>
+        <v>63.79999923706055</v>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>57.15000152587891</v>
       </c>
       <c r="E21" t="n">
-        <v>64</v>
+        <v>63.04999923706055</v>
       </c>
       <c r="F21" t="n">
-        <v>64</v>
+        <v>63.04999923706055</v>
       </c>
       <c r="G21" t="n">
-        <v>11768806</v>
+        <v>18948593</v>
       </c>
       <c r="H21" t="n">
         <v>2019</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B22" t="n">
-        <v>64.25</v>
+        <v>63.20000076293945</v>
       </c>
       <c r="C22" t="n">
-        <v>64.25</v>
+        <v>65.94999694824219</v>
       </c>
       <c r="D22" t="n">
-        <v>50.04999923706055</v>
+        <v>58</v>
       </c>
       <c r="E22" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F22" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G22" t="n">
-        <v>16920692</v>
+        <v>11768806</v>
       </c>
       <c r="H22" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1634,36 +1626,36 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B23" t="n">
-        <v>54.90000152587891</v>
+        <v>64.25</v>
       </c>
       <c r="C23" t="n">
-        <v>63.75</v>
+        <v>64.25</v>
       </c>
       <c r="D23" t="n">
-        <v>49.15000152587891</v>
+        <v>50.04999923706055</v>
       </c>
       <c r="E23" t="n">
-        <v>51.59999847412109</v>
+        <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>51.59999847412109</v>
+        <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>23330522</v>
+        <v>16920692</v>
       </c>
       <c r="H23" t="n">
         <v>2020</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B24" t="n">
-        <v>52.34999847412109</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="C24" t="n">
-        <v>52.5</v>
+        <v>63.75</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="G24" t="n">
-        <v>16676529</v>
+        <v>23330522</v>
       </c>
       <c r="H24" t="n">
         <v>2020</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B25" t="n">
-        <v>22.89999961853027</v>
+        <v>52.34999847412109</v>
       </c>
       <c r="C25" t="n">
-        <v>22.89999961853027</v>
+        <v>52.5</v>
       </c>
       <c r="D25" t="n">
-        <v>17.14999961853027</v>
+        <v>21</v>
       </c>
       <c r="E25" t="n">
-        <v>17.60000038146973</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>17.60000038146973</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>48853393</v>
+        <v>16676529</v>
       </c>
       <c r="H25" t="n">
         <v>2020</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B26" t="n">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="C26" t="n">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17.14999961853027</v>
+      </c>
+      <c r="E26" t="n">
         <v>17.60000038146973</v>
       </c>
-      <c r="C26" t="n">
-        <v>19.14999961853027</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14.05000019073486</v>
-      </c>
-      <c r="E26" t="n">
-        <v>18</v>
-      </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>17.60000038146973</v>
       </c>
       <c r="G26" t="n">
-        <v>64011505</v>
+        <v>48853393</v>
       </c>
       <c r="H26" t="n">
         <v>2020</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B27" t="n">
-        <v>18.89999961853027</v>
+        <v>17.60000038146973</v>
       </c>
       <c r="C27" t="n">
-        <v>31.85000038146973</v>
+        <v>19.14999961853027</v>
       </c>
       <c r="D27" t="n">
-        <v>18.64999961853027</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="E27" t="n">
-        <v>22.79999923706055</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>22.79999923706055</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>159983859</v>
+        <v>64011505</v>
       </c>
       <c r="H27" t="n">
         <v>2020</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B28" t="n">
-        <v>23.89999961853027</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="C28" t="n">
-        <v>27.29999923706055</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="D28" t="n">
-        <v>22.85000038146973</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="E28" t="n">
-        <v>23.60000038146973</v>
+        <v>22.79999923706055</v>
       </c>
       <c r="F28" t="n">
-        <v>23.60000038146973</v>
+        <v>22.79999923706055</v>
       </c>
       <c r="G28" t="n">
-        <v>43698125</v>
+        <v>159983859</v>
       </c>
       <c r="H28" t="n">
         <v>2020</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B29" t="n">
-        <v>23.5</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="C29" t="n">
-        <v>33.90000152587891</v>
+        <v>27.29999923706055</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>22.85000038146973</v>
       </c>
       <c r="E29" t="n">
-        <v>28.5</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="F29" t="n">
-        <v>28.5</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="G29" t="n">
-        <v>60364312</v>
+        <v>43698125</v>
       </c>
       <c r="H29" t="n">
         <v>2020</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>23.5</v>
       </c>
       <c r="C30" t="n">
-        <v>29.54999923706055</v>
+        <v>33.90000152587891</v>
       </c>
       <c r="D30" t="n">
-        <v>25.29999923706055</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>27.89999961853027</v>
+        <v>28.5</v>
       </c>
       <c r="F30" t="n">
-        <v>27.89999961853027</v>
+        <v>28.5</v>
       </c>
       <c r="G30" t="n">
-        <v>20884064</v>
+        <v>60364312</v>
       </c>
       <c r="H30" t="n">
         <v>2020</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2058,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B31" t="n">
-        <v>28.45000076293945</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>29.45000076293945</v>
+        <v>29.54999923706055</v>
       </c>
       <c r="D31" t="n">
-        <v>25.95000076293945</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="G31" t="n">
-        <v>13980530</v>
+        <v>20884064</v>
       </c>
       <c r="H31" t="n">
         <v>2020</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B32" t="n">
-        <v>27.39999961853027</v>
+        <v>28.45000076293945</v>
       </c>
       <c r="C32" t="n">
-        <v>35.40000152587891</v>
+        <v>29.45000076293945</v>
       </c>
       <c r="D32" t="n">
-        <v>26.85000038146973</v>
+        <v>25.95000076293945</v>
       </c>
       <c r="E32" t="n">
-        <v>33.34999847412109</v>
+        <v>27</v>
       </c>
       <c r="F32" t="n">
-        <v>33.34999847412109</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
-        <v>45397959</v>
+        <v>13980530</v>
       </c>
       <c r="H32" t="n">
         <v>2020</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B33" t="n">
-        <v>34</v>
+        <v>27.39999961853027</v>
       </c>
       <c r="C33" t="n">
-        <v>49.5</v>
+        <v>35.40000152587891</v>
       </c>
       <c r="D33" t="n">
-        <v>33.54999923706055</v>
+        <v>26.85000038146973</v>
       </c>
       <c r="E33" t="n">
-        <v>40.25</v>
+        <v>33.34999847412109</v>
       </c>
       <c r="F33" t="n">
-        <v>40.25</v>
+        <v>33.34999847412109</v>
       </c>
       <c r="G33" t="n">
-        <v>117472100</v>
+        <v>45397959</v>
       </c>
       <c r="H33" t="n">
         <v>2020</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B34" t="n">
-        <v>40.45000076293945</v>
+        <v>34</v>
       </c>
       <c r="C34" t="n">
-        <v>45.34999847412109</v>
+        <v>49.5</v>
       </c>
       <c r="D34" t="n">
-        <v>39.20000076293945</v>
+        <v>33.54999923706055</v>
       </c>
       <c r="E34" t="n">
-        <v>41.40000152587891</v>
+        <v>40.25</v>
       </c>
       <c r="F34" t="n">
-        <v>41.40000152587891</v>
+        <v>40.25</v>
       </c>
       <c r="G34" t="n">
-        <v>33112782</v>
+        <v>117472100</v>
       </c>
       <c r="H34" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B35" t="n">
+        <v>40.45000076293945</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45.34999847412109</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39.20000076293945</v>
+      </c>
+      <c r="E35" t="n">
         <v>41.40000152587891</v>
       </c>
-      <c r="C35" t="n">
-        <v>45.45000076293945</v>
-      </c>
-      <c r="D35" t="n">
-        <v>39.95000076293945</v>
-      </c>
-      <c r="E35" t="n">
-        <v>40.84999847412109</v>
-      </c>
       <c r="F35" t="n">
-        <v>40.84999847412109</v>
+        <v>41.40000152587891</v>
       </c>
       <c r="G35" t="n">
-        <v>32021038</v>
+        <v>33112782</v>
       </c>
       <c r="H35" t="n">
         <v>2021</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B36" t="n">
+        <v>41.40000152587891</v>
+      </c>
+      <c r="C36" t="n">
+        <v>45.45000076293945</v>
+      </c>
+      <c r="D36" t="n">
+        <v>39.95000076293945</v>
+      </c>
+      <c r="E36" t="n">
         <v>40.84999847412109</v>
       </c>
-      <c r="C36" t="n">
-        <v>44.84999847412109</v>
-      </c>
-      <c r="D36" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>37</v>
-      </c>
       <c r="F36" t="n">
-        <v>37</v>
+        <v>40.84999847412109</v>
       </c>
       <c r="G36" t="n">
-        <v>36731058</v>
+        <v>32021038</v>
       </c>
       <c r="H36" t="n">
         <v>2021</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B37" t="n">
-        <v>37.5</v>
+        <v>40.84999847412109</v>
       </c>
       <c r="C37" t="n">
-        <v>38.40000152587891</v>
+        <v>44.84999847412109</v>
       </c>
       <c r="D37" t="n">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="E37" t="n">
-        <v>35.40000152587891</v>
+        <v>37</v>
       </c>
       <c r="F37" t="n">
-        <v>35.40000152587891</v>
+        <v>37</v>
       </c>
       <c r="G37" t="n">
-        <v>38124865</v>
+        <v>36731058</v>
       </c>
       <c r="H37" t="n">
         <v>2021</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,45 +2412,45 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B38" t="n">
-        <v>35.29999923706055</v>
+        <v>37.5</v>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>38.40000152587891</v>
       </c>
       <c r="D38" t="n">
-        <v>34.09999847412109</v>
+        <v>27</v>
       </c>
       <c r="E38" t="n">
-        <v>41.79999923706055</v>
+        <v>35.40000152587891</v>
       </c>
       <c r="F38" t="n">
-        <v>41.79999923706055</v>
+        <v>35.40000152587891</v>
       </c>
       <c r="G38" t="n">
-        <v>52544160</v>
+        <v>38124865</v>
       </c>
       <c r="H38" t="n">
         <v>2021</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,45 +2465,45 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B39" t="n">
-        <v>42</v>
+        <v>35.29999923706055</v>
       </c>
       <c r="C39" t="n">
-        <v>46.54999923706055</v>
+        <v>43</v>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="E39" t="n">
-        <v>41.95000076293945</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="F39" t="n">
-        <v>41.95000076293945</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="G39" t="n">
-        <v>93522289</v>
+        <v>52544160</v>
       </c>
       <c r="H39" t="n">
         <v>2021</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B40" t="n">
-        <v>42.20000076293945</v>
+        <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v>47.15000152587891</v>
+        <v>46.54999923706055</v>
       </c>
       <c r="D40" t="n">
-        <v>39.65000152587891</v>
+        <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>41.20000076293945</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="F40" t="n">
-        <v>41.20000076293945</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="G40" t="n">
-        <v>81278505</v>
+        <v>93522289</v>
       </c>
       <c r="H40" t="n">
         <v>2021</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B41" t="n">
-        <v>41.04999923706055</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="C41" t="n">
-        <v>42.54999923706055</v>
+        <v>47.15000152587891</v>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="E41" t="n">
-        <v>38.59999847412109</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="F41" t="n">
-        <v>38.59999847412109</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="G41" t="n">
-        <v>41184328</v>
+        <v>81278505</v>
       </c>
       <c r="H41" t="n">
         <v>2021</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2641,36 +2633,36 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B42" t="n">
-        <v>38.40000152587891</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="C42" t="n">
-        <v>47.29999923706055</v>
+        <v>42.54999923706055</v>
       </c>
       <c r="D42" t="n">
-        <v>37.75</v>
+        <v>36</v>
       </c>
       <c r="E42" t="n">
-        <v>45.40000152587891</v>
+        <v>38.59999847412109</v>
       </c>
       <c r="F42" t="n">
-        <v>45.40000152587891</v>
+        <v>38.59999847412109</v>
       </c>
       <c r="G42" t="n">
-        <v>138309101</v>
+        <v>41184328</v>
       </c>
       <c r="H42" t="n">
         <v>2021</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2694,36 +2686,36 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B43" t="n">
-        <v>45.29999923706055</v>
+        <v>38.40000152587891</v>
       </c>
       <c r="C43" t="n">
-        <v>57.54999923706055</v>
+        <v>47.29999923706055</v>
       </c>
       <c r="D43" t="n">
-        <v>44.20000076293945</v>
+        <v>37.75</v>
       </c>
       <c r="E43" t="n">
-        <v>54.5</v>
+        <v>45.40000152587891</v>
       </c>
       <c r="F43" t="n">
-        <v>54.5</v>
+        <v>45.40000152587891</v>
       </c>
       <c r="G43" t="n">
-        <v>200550628</v>
+        <v>138309101</v>
       </c>
       <c r="H43" t="n">
         <v>2021</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B44" t="n">
-        <v>54.59999847412109</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="C44" t="n">
-        <v>59.90000152587891</v>
+        <v>57.54999923706055</v>
       </c>
       <c r="D44" t="n">
-        <v>42.09999847412109</v>
+        <v>44.20000076293945</v>
       </c>
       <c r="E44" t="n">
-        <v>44.54999923706055</v>
+        <v>54.5</v>
       </c>
       <c r="F44" t="n">
-        <v>44.54999923706055</v>
+        <v>54.5</v>
       </c>
       <c r="G44" t="n">
-        <v>107219438</v>
+        <v>200550628</v>
       </c>
       <c r="H44" t="n">
         <v>2021</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B45" t="n">
-        <v>44.70000076293945</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="C45" t="n">
-        <v>51.25</v>
+        <v>59.90000152587891</v>
       </c>
       <c r="D45" t="n">
-        <v>43.25</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="E45" t="n">
-        <v>46.59999847412109</v>
+        <v>44.54999923706055</v>
       </c>
       <c r="F45" t="n">
-        <v>46.59999847412109</v>
+        <v>44.54999923706055</v>
       </c>
       <c r="G45" t="n">
-        <v>63022339</v>
+        <v>107219438</v>
       </c>
       <c r="H45" t="n">
         <v>2021</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B46" t="n">
-        <v>46.29999923706055</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="C46" t="n">
-        <v>54.75</v>
+        <v>51.25</v>
       </c>
       <c r="D46" t="n">
-        <v>45.25</v>
+        <v>43.25</v>
       </c>
       <c r="E46" t="n">
-        <v>51.79999923706055</v>
+        <v>46.59999847412109</v>
       </c>
       <c r="F46" t="n">
-        <v>51.79999923706055</v>
+        <v>46.59999847412109</v>
       </c>
       <c r="G46" t="n">
-        <v>69278723</v>
+        <v>63022339</v>
       </c>
       <c r="H46" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B47" t="n">
-        <v>52.90000152587891</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="C47" t="n">
-        <v>54.29999923706055</v>
+        <v>54.75</v>
       </c>
       <c r="D47" t="n">
-        <v>45.29999923706055</v>
+        <v>45.25</v>
       </c>
       <c r="E47" t="n">
-        <v>50.20000076293945</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="F47" t="n">
-        <v>50.20000076293945</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="G47" t="n">
-        <v>109290088</v>
+        <v>69278723</v>
       </c>
       <c r="H47" t="n">
         <v>2022</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B48" t="n">
+        <v>52.90000152587891</v>
+      </c>
+      <c r="C48" t="n">
+        <v>54.29999923706055</v>
+      </c>
+      <c r="D48" t="n">
+        <v>45.29999923706055</v>
+      </c>
+      <c r="E48" t="n">
         <v>50.20000076293945</v>
       </c>
-      <c r="C48" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="D48" t="n">
-        <v>48.59999847412109</v>
-      </c>
-      <c r="E48" t="n">
-        <v>63.40000152587891</v>
-      </c>
       <c r="F48" t="n">
-        <v>63.40000152587891</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="G48" t="n">
-        <v>278009162</v>
+        <v>109290088</v>
       </c>
       <c r="H48" t="n">
         <v>2022</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3012,36 +3004,36 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B49" t="n">
-        <v>64</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="C49" t="n">
-        <v>71.44999694824219</v>
+        <v>71.25</v>
       </c>
       <c r="D49" t="n">
-        <v>62.09999847412109</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="E49" t="n">
-        <v>66.40000152587891</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="F49" t="n">
-        <v>66.40000152587891</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="G49" t="n">
-        <v>133048352</v>
+        <v>278009162</v>
       </c>
       <c r="H49" t="n">
         <v>2022</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,45 +3048,45 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B50" t="n">
-        <v>65.69999694824219</v>
+        <v>64</v>
       </c>
       <c r="C50" t="n">
-        <v>67.84999847412109</v>
+        <v>71.44999694824219</v>
       </c>
       <c r="D50" t="n">
-        <v>57</v>
+        <v>62.09999847412109</v>
       </c>
       <c r="E50" t="n">
-        <v>64.19999694824219</v>
+        <v>66.40000152587891</v>
       </c>
       <c r="F50" t="n">
-        <v>64.19999694824219</v>
+        <v>66.40000152587891</v>
       </c>
       <c r="G50" t="n">
-        <v>88452791</v>
+        <v>133048352</v>
       </c>
       <c r="H50" t="n">
         <v>2022</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B51" t="n">
-        <v>64.5</v>
+        <v>65.69999694824219</v>
       </c>
       <c r="C51" t="n">
-        <v>71.44999694824219</v>
+        <v>67.84999847412109</v>
       </c>
       <c r="D51" t="n">
-        <v>58.29999923706055</v>
+        <v>57</v>
       </c>
       <c r="E51" t="n">
-        <v>61.04999923706055</v>
+        <v>64.19999694824219</v>
       </c>
       <c r="F51" t="n">
-        <v>61.04999923706055</v>
+        <v>64.19999694824219</v>
       </c>
       <c r="G51" t="n">
-        <v>59689476</v>
+        <v>88452791</v>
       </c>
       <c r="H51" t="n">
         <v>2022</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B52" t="n">
-        <v>60.5</v>
+        <v>64.5</v>
       </c>
       <c r="C52" t="n">
-        <v>69.09999847412109</v>
+        <v>71.44999694824219</v>
       </c>
       <c r="D52" t="n">
-        <v>60.09999847412109</v>
+        <v>58.29999923706055</v>
       </c>
       <c r="E52" t="n">
-        <v>65.94999694824219</v>
+        <v>61.04999923706055</v>
       </c>
       <c r="F52" t="n">
-        <v>65.94999694824219</v>
+        <v>61.04999923706055</v>
       </c>
       <c r="G52" t="n">
-        <v>51716876</v>
+        <v>59689476</v>
       </c>
       <c r="H52" t="n">
         <v>2022</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B53" t="n">
-        <v>66.69999694824219</v>
+        <v>60.5</v>
       </c>
       <c r="C53" t="n">
-        <v>79.09999847412109</v>
+        <v>69.09999847412109</v>
       </c>
       <c r="D53" t="n">
-        <v>64.65000152587891</v>
+        <v>60.09999847412109</v>
       </c>
       <c r="E53" t="n">
-        <v>69.94999694824219</v>
+        <v>65.94999694824219</v>
       </c>
       <c r="F53" t="n">
-        <v>69.94999694824219</v>
+        <v>65.94999694824219</v>
       </c>
       <c r="G53" t="n">
-        <v>179322290</v>
+        <v>51716876</v>
       </c>
       <c r="H53" t="n">
         <v>2022</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3277,36 +3269,36 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B54" t="n">
-        <v>70.15000152587891</v>
+        <v>66.69999694824219</v>
       </c>
       <c r="C54" t="n">
-        <v>88.5</v>
+        <v>79.09999847412109</v>
       </c>
       <c r="D54" t="n">
-        <v>69.90000152587891</v>
+        <v>64.65000152587891</v>
       </c>
       <c r="E54" t="n">
-        <v>86.80000305175781</v>
+        <v>69.94999694824219</v>
       </c>
       <c r="F54" t="n">
-        <v>86.80000305175781</v>
+        <v>69.94999694824219</v>
       </c>
       <c r="G54" t="n">
-        <v>192968069</v>
+        <v>179322290</v>
       </c>
       <c r="H54" t="n">
         <v>2022</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3330,36 +3322,36 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B55" t="n">
+        <v>70.15000152587891</v>
+      </c>
+      <c r="C55" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="E55" t="n">
         <v>86.80000305175781</v>
       </c>
-      <c r="C55" t="n">
-        <v>93.44999694824219</v>
-      </c>
-      <c r="D55" t="n">
-        <v>82.05000305175781</v>
-      </c>
-      <c r="E55" t="n">
-        <v>84.25</v>
-      </c>
       <c r="F55" t="n">
-        <v>84.25</v>
+        <v>86.80000305175781</v>
       </c>
       <c r="G55" t="n">
-        <v>79648283</v>
+        <v>192968069</v>
       </c>
       <c r="H55" t="n">
         <v>2022</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B56" t="n">
-        <v>84.30000305175781</v>
+        <v>86.80000305175781</v>
       </c>
       <c r="C56" t="n">
-        <v>102.5</v>
+        <v>93.44999694824219</v>
       </c>
       <c r="D56" t="n">
-        <v>84.05000305175781</v>
+        <v>82.05000305175781</v>
       </c>
       <c r="E56" t="n">
-        <v>100.9000015258789</v>
+        <v>84.25</v>
       </c>
       <c r="F56" t="n">
-        <v>100.9000015258789</v>
+        <v>84.25</v>
       </c>
       <c r="G56" t="n">
-        <v>123818478</v>
+        <v>79648283</v>
       </c>
       <c r="H56" t="n">
         <v>2022</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B57" t="n">
-        <v>102.9000015258789</v>
+        <v>84.30000305175781</v>
       </c>
       <c r="C57" t="n">
-        <v>103.4000015258789</v>
+        <v>102.5</v>
       </c>
       <c r="D57" t="n">
-        <v>70.19999694824219</v>
+        <v>84.05000305175781</v>
       </c>
       <c r="E57" t="n">
-        <v>85.65000152587891</v>
+        <v>100.9000015258789</v>
       </c>
       <c r="F57" t="n">
-        <v>85.65000152587891</v>
+        <v>100.9000015258789</v>
       </c>
       <c r="G57" t="n">
-        <v>122027740</v>
+        <v>123818478</v>
       </c>
       <c r="H57" t="n">
         <v>2022</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B58" t="n">
-        <v>86</v>
+        <v>102.9000015258789</v>
       </c>
       <c r="C58" t="n">
-        <v>86.25</v>
+        <v>103.4000015258789</v>
       </c>
       <c r="D58" t="n">
-        <v>71.94999694824219</v>
+        <v>70.19999694824219</v>
       </c>
       <c r="E58" t="n">
-        <v>76.5</v>
+        <v>85.65000152587891</v>
       </c>
       <c r="F58" t="n">
-        <v>76.5</v>
+        <v>85.65000152587891</v>
       </c>
       <c r="G58" t="n">
-        <v>55276378</v>
+        <v>122027740</v>
       </c>
       <c r="H58" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B59" t="n">
-        <v>78.5</v>
+        <v>86</v>
       </c>
       <c r="C59" t="n">
-        <v>82.94999694824219</v>
+        <v>86.25</v>
       </c>
       <c r="D59" t="n">
-        <v>72.5</v>
+        <v>71.94999694824219</v>
       </c>
       <c r="E59" t="n">
-        <v>77.90000152587891</v>
+        <v>76.5</v>
       </c>
       <c r="F59" t="n">
-        <v>77.90000152587891</v>
+        <v>76.5</v>
       </c>
       <c r="G59" t="n">
-        <v>82926218</v>
+        <v>55276378</v>
       </c>
       <c r="H59" t="n">
         <v>2023</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B60" t="n">
-        <v>78.40000152587891</v>
+        <v>78.5</v>
       </c>
       <c r="C60" t="n">
-        <v>82.44999694824219</v>
+        <v>82.94999694824219</v>
       </c>
       <c r="D60" t="n">
-        <v>72.80000305175781</v>
+        <v>72.5</v>
       </c>
       <c r="E60" t="n">
-        <v>77.25</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="F60" t="n">
-        <v>77.25</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="G60" t="n">
-        <v>67352732</v>
+        <v>82926218</v>
       </c>
       <c r="H60" t="n">
         <v>2023</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B61" t="n">
-        <v>77.80000305175781</v>
+        <v>78.40000152587891</v>
       </c>
       <c r="C61" t="n">
-        <v>90.40000152587891</v>
+        <v>82.44999694824219</v>
       </c>
       <c r="D61" t="n">
-        <v>75.15000152587891</v>
+        <v>72.80000305175781</v>
       </c>
       <c r="E61" t="n">
-        <v>88.05000305175781</v>
+        <v>77.25</v>
       </c>
       <c r="F61" t="n">
-        <v>88.05000305175781</v>
+        <v>77.25</v>
       </c>
       <c r="G61" t="n">
-        <v>131839363</v>
+        <v>67352732</v>
       </c>
       <c r="H61" t="n">
         <v>2023</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3701,36 +3693,36 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B62" t="n">
+        <v>77.80000305175781</v>
+      </c>
+      <c r="C62" t="n">
+        <v>90.40000152587891</v>
+      </c>
+      <c r="D62" t="n">
+        <v>75.15000152587891</v>
+      </c>
+      <c r="E62" t="n">
         <v>88.05000305175781</v>
       </c>
-      <c r="C62" t="n">
-        <v>99.90000152587891</v>
-      </c>
-      <c r="D62" t="n">
-        <v>87.34999847412109</v>
-      </c>
-      <c r="E62" t="n">
-        <v>95.94999694824219</v>
-      </c>
       <c r="F62" t="n">
-        <v>95.94999694824219</v>
+        <v>88.05000305175781</v>
       </c>
       <c r="G62" t="n">
-        <v>141870106</v>
+        <v>131839363</v>
       </c>
       <c r="H62" t="n">
         <v>2023</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3754,36 +3746,36 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B63" t="n">
-        <v>96.44999694824219</v>
+        <v>88.05000305175781</v>
       </c>
       <c r="C63" t="n">
-        <v>97.59999847412109</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="D63" t="n">
-        <v>91.55000305175781</v>
+        <v>87.34999847412109</v>
       </c>
       <c r="E63" t="n">
-        <v>93.69999694824219</v>
+        <v>95.94999694824219</v>
       </c>
       <c r="F63" t="n">
-        <v>93.69999694824219</v>
+        <v>95.94999694824219</v>
       </c>
       <c r="G63" t="n">
-        <v>77789975</v>
+        <v>141870106</v>
       </c>
       <c r="H63" t="n">
         <v>2023</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B64" t="n">
-        <v>94.09999847412109</v>
+        <v>96.44999694824219</v>
       </c>
       <c r="C64" t="n">
-        <v>95.59999847412109</v>
+        <v>97.59999847412109</v>
       </c>
       <c r="D64" t="n">
-        <v>89.90000152587891</v>
+        <v>91.55000305175781</v>
       </c>
       <c r="E64" t="n">
-        <v>92.40000152587891</v>
+        <v>93.69999694824219</v>
       </c>
       <c r="F64" t="n">
-        <v>92.40000152587891</v>
+        <v>93.69999694824219</v>
       </c>
       <c r="G64" t="n">
-        <v>58121959</v>
+        <v>77789975</v>
       </c>
       <c r="H64" t="n">
         <v>2023</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B65" t="n">
-        <v>92.5</v>
+        <v>94.09999847412109</v>
       </c>
       <c r="C65" t="n">
-        <v>112.8000030517578</v>
+        <v>95.59999847412109</v>
       </c>
       <c r="D65" t="n">
-        <v>92.34999847412109</v>
+        <v>89.90000152587891</v>
       </c>
       <c r="E65" t="n">
-        <v>109.25</v>
+        <v>92.40000152587891</v>
       </c>
       <c r="F65" t="n">
-        <v>109.25</v>
+        <v>92.40000152587891</v>
       </c>
       <c r="G65" t="n">
-        <v>221671652</v>
+        <v>58121959</v>
       </c>
       <c r="H65" t="n">
         <v>2023</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B66" t="n">
-        <v>109.5500030517578</v>
+        <v>92.5</v>
       </c>
       <c r="C66" t="n">
-        <v>126.8000030517578</v>
+        <v>112.8000030517578</v>
       </c>
       <c r="D66" t="n">
-        <v>105.5</v>
+        <v>92.34999847412109</v>
       </c>
       <c r="E66" t="n">
-        <v>113.75</v>
+        <v>109.25</v>
       </c>
       <c r="F66" t="n">
-        <v>113.75</v>
+        <v>109.25</v>
       </c>
       <c r="G66" t="n">
-        <v>192447191</v>
+        <v>221671652</v>
       </c>
       <c r="H66" t="n">
         <v>2023</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B67" t="n">
+        <v>109.5500030517578</v>
+      </c>
+      <c r="C67" t="n">
+        <v>126.8000030517578</v>
+      </c>
+      <c r="D67" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E67" t="n">
         <v>113.75</v>
       </c>
-      <c r="C67" t="n">
-        <v>125.1999969482422</v>
-      </c>
-      <c r="D67" t="n">
-        <v>100.75</v>
-      </c>
-      <c r="E67" t="n">
-        <v>109.8499984741211</v>
-      </c>
       <c r="F67" t="n">
-        <v>109.8499984741211</v>
+        <v>113.75</v>
       </c>
       <c r="G67" t="n">
-        <v>122495477</v>
+        <v>192447191</v>
       </c>
       <c r="H67" t="n">
         <v>2023</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B68" t="n">
-        <v>110</v>
+        <v>113.75</v>
       </c>
       <c r="C68" t="n">
-        <v>118.3000030517578</v>
+        <v>125.1999969482422</v>
       </c>
       <c r="D68" t="n">
-        <v>106.3000030517578</v>
+        <v>100.75</v>
       </c>
       <c r="E68" t="n">
-        <v>114.3000030517578</v>
+        <v>109.8499984741211</v>
       </c>
       <c r="F68" t="n">
-        <v>114.3000030517578</v>
+        <v>109.8499984741211</v>
       </c>
       <c r="G68" t="n">
-        <v>68173417</v>
+        <v>122495477</v>
       </c>
       <c r="H68" t="n">
         <v>2023</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B69" t="n">
-        <v>114.3499984741211</v>
+        <v>110</v>
       </c>
       <c r="C69" t="n">
-        <v>123.4000015258789</v>
+        <v>118.3000030517578</v>
       </c>
       <c r="D69" t="n">
-        <v>111.8000030517578</v>
+        <v>106.3000030517578</v>
       </c>
       <c r="E69" t="n">
-        <v>119.8499984741211</v>
+        <v>114.3000030517578</v>
       </c>
       <c r="F69" t="n">
-        <v>119.8499984741211</v>
+        <v>114.3000030517578</v>
       </c>
       <c r="G69" t="n">
-        <v>93419756</v>
+        <v>68173417</v>
       </c>
       <c r="H69" t="n">
         <v>2023</v>
       </c>
       <c r="I69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B70" t="n">
-        <v>119.9000015258789</v>
+        <v>114.3499984741211</v>
       </c>
       <c r="C70" t="n">
-        <v>144.6499938964844</v>
+        <v>123.4000015258789</v>
       </c>
       <c r="D70" t="n">
-        <v>118.5</v>
+        <v>111.8000030517578</v>
       </c>
       <c r="E70" t="n">
-        <v>139.8500061035156</v>
+        <v>119.8499984741211</v>
       </c>
       <c r="F70" t="n">
-        <v>139.8500061035156</v>
+        <v>119.8499984741211</v>
       </c>
       <c r="G70" t="n">
-        <v>238640304</v>
+        <v>93419756</v>
       </c>
       <c r="H70" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4178,89 +4170,89 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B71" t="n">
-        <v>141.1499938964844</v>
+        <v>119.9000015258789</v>
       </c>
       <c r="C71" t="n">
-        <v>147.25</v>
+        <v>144.6499938964844</v>
       </c>
       <c r="D71" t="n">
-        <v>126.3499984741211</v>
+        <v>118.5</v>
       </c>
       <c r="E71" t="n">
-        <v>139.3999938964844</v>
+        <v>139.8500061035156</v>
       </c>
       <c r="F71" t="n">
-        <v>139.3999938964844</v>
+        <v>139.8500061035156</v>
       </c>
       <c r="G71" t="n">
-        <v>106973120</v>
+        <v>238640304</v>
       </c>
       <c r="H71" t="n">
         <v>2024</v>
       </c>
       <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>5</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B72" t="n">
-        <v>140.25</v>
+        <v>141.1499938964844</v>
       </c>
       <c r="C72" t="n">
-        <v>146.3500061035156</v>
+        <v>147.25</v>
       </c>
       <c r="D72" t="n">
-        <v>122.1500015258789</v>
+        <v>126.3499984741211</v>
       </c>
       <c r="E72" t="n">
-        <v>130.5500030517578</v>
+        <v>139.3999938964844</v>
       </c>
       <c r="F72" t="n">
-        <v>130.5500030517578</v>
+        <v>139.3999938964844</v>
       </c>
       <c r="G72" t="n">
-        <v>66984698</v>
+        <v>106973120</v>
       </c>
       <c r="H72" t="n">
         <v>2024</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B73" t="n">
-        <v>131.1999969482422</v>
+        <v>140.25</v>
       </c>
       <c r="C73" t="n">
-        <v>154.5</v>
+        <v>146.3500061035156</v>
       </c>
       <c r="D73" t="n">
-        <v>131.1999969482422</v>
+        <v>122.1500015258789</v>
       </c>
       <c r="E73" t="n">
-        <v>152.8000030517578</v>
+        <v>130.5500030517578</v>
       </c>
       <c r="F73" t="n">
-        <v>152.8000030517578</v>
+        <v>130.5500030517578</v>
       </c>
       <c r="G73" t="n">
-        <v>102448540</v>
+        <v>66984698</v>
       </c>
       <c r="H73" t="n">
         <v>2024</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B74" t="n">
+        <v>131.1999969482422</v>
+      </c>
+      <c r="C74" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>131.1999969482422</v>
+      </c>
+      <c r="E74" t="n">
         <v>152.8000030517578</v>
       </c>
-      <c r="C74" t="n">
-        <v>158</v>
-      </c>
-      <c r="D74" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>136.3500061035156</v>
-      </c>
       <c r="F74" t="n">
-        <v>136.3500061035156</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="G74" t="n">
-        <v>80133550</v>
+        <v>102448540</v>
       </c>
       <c r="H74" t="n">
         <v>2024</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4395,56 +4387,514 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B75" t="n">
-        <v>143.3500061035156</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="C75" t="n">
-        <v>144.3399963378906</v>
+        <v>158</v>
       </c>
       <c r="D75" t="n">
-        <v>125.0500030517578</v>
+        <v>135.5</v>
       </c>
       <c r="E75" t="n">
-        <v>143.6000061035156</v>
+        <v>136.3500061035156</v>
       </c>
       <c r="F75" t="n">
-        <v>143.6000061035156</v>
+        <v>136.3500061035156</v>
       </c>
       <c r="G75" t="n">
-        <v>20321314</v>
+        <v>80133550</v>
       </c>
       <c r="H75" t="n">
         <v>2024</v>
       </c>
       <c r="I75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>18</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B76" t="n">
+        <v>143.3500061035156</v>
+      </c>
+      <c r="C76" t="n">
+        <v>144.3399963378906</v>
+      </c>
+      <c r="D76" t="n">
+        <v>125.0500030517578</v>
+      </c>
+      <c r="E76" t="n">
+        <v>143.6000061035156</v>
+      </c>
+      <c r="F76" t="n">
+        <v>143.6000061035156</v>
+      </c>
+      <c r="G76" t="n">
+        <v>20321314</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I76" t="n">
         <v>6</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
         <v>22</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B77" t="n">
+        <v>146.3000030517578</v>
+      </c>
+      <c r="C77" t="n">
+        <v>152.3399963378906</v>
+      </c>
+      <c r="D77" t="n">
+        <v>135.8000030517578</v>
+      </c>
+      <c r="E77" t="n">
+        <v>150.5700073242188</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>59109051</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>27</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B78" t="n">
+        <v>151.6999969482422</v>
+      </c>
+      <c r="C78" t="n">
+        <v>152.1900024414062</v>
+      </c>
+      <c r="D78" t="n">
+        <v>115.1100006103516</v>
+      </c>
+      <c r="E78" t="n">
+        <v>134.4700012207031</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>154084126</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>31</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B79" t="n">
+        <v>135.3500061035156</v>
+      </c>
+      <c r="C79" t="n">
+        <v>135.3500061035156</v>
+      </c>
+      <c r="D79" t="n">
+        <v>120.7600021362305</v>
+      </c>
+      <c r="E79" t="n">
+        <v>121.870002746582</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>66920172</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>35</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B80" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="C80" t="n">
+        <v>127.4000015258789</v>
+      </c>
+      <c r="D80" t="n">
+        <v>112.2900009155273</v>
+      </c>
+      <c r="E80" t="n">
+        <v>117.75</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>58127408</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>40</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B81" t="n">
+        <v>118.4000015258789</v>
+      </c>
+      <c r="C81" t="n">
+        <v>131.9600067138672</v>
+      </c>
+      <c r="D81" t="n">
+        <v>115.4000015258789</v>
+      </c>
+      <c r="E81" t="n">
+        <v>130.5899963378906</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>77759000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>44</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B82" t="n">
+        <v>130.8800048828125</v>
+      </c>
+      <c r="C82" t="n">
+        <v>159</v>
+      </c>
+      <c r="D82" t="n">
+        <v>129.2799987792969</v>
+      </c>
+      <c r="E82" t="n">
+        <v>152.9600067138672</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>127702535</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>48</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B83" t="n">
+        <v>153</v>
+      </c>
+      <c r="C83" t="n">
+        <v>162.3999938964844</v>
+      </c>
+      <c r="D83" t="n">
+        <v>125.4000015258789</v>
+      </c>
+      <c r="E83" t="n">
+        <v>136.1999969482422</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>71573151</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B84" t="n">
+        <v>136.1999969482422</v>
+      </c>
+      <c r="C84" t="n">
+        <v>154.7200012207031</v>
+      </c>
+      <c r="D84" t="n">
+        <v>120.4000015258789</v>
+      </c>
+      <c r="E84" t="n">
+        <v>121.7099990844727</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>84545385</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B85" t="n">
+        <v>122</v>
+      </c>
+      <c r="C85" t="n">
+        <v>143.8999938964844</v>
+      </c>
+      <c r="D85" t="n">
+        <v>117.5100021362305</v>
+      </c>
+      <c r="E85" t="n">
+        <v>128.4100036621094</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>64645950</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>9</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
